--- a/Teste de Mesa - Tarefa 1.xlsx
+++ b/Teste de Mesa - Tarefa 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwesl\Documents\FATEC\Linguagem de Programacao I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4113A5A0-48CB-4F46-B0C5-931A8E6787B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF0939-AEDF-4D6C-864E-93F80F10C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="205">
   <si>
     <t>EXÉRCICIO 1 - CalcIdade</t>
   </si>
@@ -660,7 +660,10 @@
                 * (api * 0.5) + x + (sub * 0.2);</t>
   </si>
   <si>
-    <t>media = (6</t>
+    <t>media = (6 * 0.6 + ((6 + 6) / 2) * 0.4) * 0.5 + (Math.max(((6 +* 0.6 + ((6 + 6) / 2) * 0.4) - 5.9), 0) / ((6 * 0.6 + ((6 + 6) / 2) *0.4) - 5.9)) * (7 * 0.5) + 1 + (0*0.2);</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:EY15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="EU1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="EU4" sqref="EU4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="EX18" sqref="EX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1247,7 @@
     <col min="151" max="151" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="28" customWidth="1"/>
     <col min="153" max="153" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="73.5546875" customWidth="1"/>
+    <col min="154" max="154" width="90.44140625" customWidth="1"/>
     <col min="155" max="155" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2468,11 +2471,15 @@
       <c r="EV5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="EW5" s="8"/>
+      <c r="EW5" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="EX5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="EY5" s="8"/>
+      <c r="EY5" s="8" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="2:155" x14ac:dyDescent="0.3">
       <c r="M6" s="3" t="s">
